--- a/Main Program (зубр, ценовое позиционирование)/Зубр.xlsx
+++ b/Main Program (зубр, ценовое позиционирование)/Зубр.xlsx
@@ -920,7 +920,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1573,6 +1573,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2662,8 +2704,10 @@
       <c r="F14" s="146" t="n">
         <v>195</v>
       </c>
-      <c r="G14" s="146" t="n">
-        <v>195</v>
+      <c r="G14" s="255" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="H14" s="146" t="n">
         <v>195</v>
@@ -2704,8 +2748,10 @@
       <c r="F15" s="146" t="n">
         <v>240</v>
       </c>
-      <c r="G15" s="146" t="n">
-        <v>240</v>
+      <c r="G15" s="255" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="H15" s="146" t="n">
         <v>240</v>
@@ -2768,7 +2814,11 @@
       <c r="F17" s="155" t="n">
         <v>165</v>
       </c>
-      <c r="G17" s="154" t="n"/>
+      <c r="G17" s="256" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
       <c r="H17" s="158" t="n">
         <v>145</v>
       </c>
@@ -2802,7 +2852,11 @@
         <v>155</v>
       </c>
       <c r="F18" s="155" t="n"/>
-      <c r="G18" s="154" t="n"/>
+      <c r="G18" s="256" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
       <c r="H18" s="154" t="n">
         <v>165</v>
       </c>
@@ -2838,7 +2892,11 @@
       <c r="F19" s="154" t="n">
         <v>205</v>
       </c>
-      <c r="G19" s="154" t="n"/>
+      <c r="G19" s="256" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
       <c r="H19" s="156" t="n">
         <v>205</v>
       </c>
@@ -2874,7 +2932,11 @@
       <c r="F20" s="154" t="n">
         <v>260</v>
       </c>
-      <c r="G20" s="154" t="n"/>
+      <c r="G20" s="256" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
       <c r="H20" s="157" t="n">
         <v>260</v>
       </c>
@@ -3085,8 +3147,10 @@
       <c r="F25" s="154" t="n">
         <v>175</v>
       </c>
-      <c r="G25" s="154" t="n">
-        <v>175</v>
+      <c r="G25" s="252" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
       </c>
       <c r="H25" s="154" t="n">
         <v>175</v>
@@ -3133,8 +3197,10 @@
       <c r="AH25" s="189" t="n">
         <v>190</v>
       </c>
-      <c r="AI25" s="189" t="n">
-        <v>185</v>
+      <c r="AI25" s="261" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
       </c>
       <c r="AJ25" s="168" t="n"/>
     </row>
@@ -3157,8 +3223,10 @@
       <c r="F26" s="154" t="n">
         <v>185</v>
       </c>
-      <c r="G26" s="154" t="n">
-        <v>185</v>
+      <c r="G26" s="252" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="H26" s="154" t="n">
         <v>185</v>
@@ -3215,7 +3283,11 @@
       <c r="AH26" s="136" t="n">
         <v>226</v>
       </c>
-      <c r="AI26" s="136" t="n"/>
+      <c r="AI26" s="248" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
       <c r="AJ26" s="148" t="n"/>
     </row>
     <row r="27" ht="29" customHeight="1" s="196">
@@ -3237,8 +3309,10 @@
       <c r="F27" s="154" t="n">
         <v>185</v>
       </c>
-      <c r="G27" s="154" t="n">
-        <v>185</v>
+      <c r="G27" s="252" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="H27" s="154" t="n">
         <v>185</v>
@@ -3300,8 +3374,10 @@
       <c r="F28" s="154" t="n">
         <v>190</v>
       </c>
-      <c r="G28" s="154" t="n">
-        <v>190</v>
+      <c r="G28" s="252" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="H28" s="154" t="n">
         <v>190</v>
@@ -3354,8 +3430,10 @@
       <c r="F29" s="154" t="n">
         <v>200</v>
       </c>
-      <c r="G29" s="154" t="n">
-        <v>200</v>
+      <c r="G29" s="252" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="H29" s="154" t="n">
         <v>200</v>
@@ -3408,8 +3486,10 @@
       <c r="F30" s="154" t="n">
         <v>220</v>
       </c>
-      <c r="G30" s="154" t="n">
-        <v>220</v>
+      <c r="G30" s="252" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="H30" s="154" t="n">
         <v>220</v>
@@ -3476,8 +3556,10 @@
       <c r="F31" s="154" t="n">
         <v>220</v>
       </c>
-      <c r="G31" s="154" t="n">
-        <v>220</v>
+      <c r="G31" s="252" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="H31" s="154" t="n">
         <v>220</v>
@@ -3534,7 +3616,11 @@
       <c r="AH31" s="136" t="n">
         <v>586</v>
       </c>
-      <c r="AI31" s="136" t="n"/>
+      <c r="AI31" s="248" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
       <c r="AJ31" s="148" t="n"/>
     </row>
     <row r="32">
@@ -3556,8 +3642,10 @@
       <c r="F32" s="154" t="n">
         <v>270</v>
       </c>
-      <c r="G32" s="154" t="n">
-        <v>270</v>
+      <c r="G32" s="252" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
       </c>
       <c r="H32" s="154" t="n">
         <v>270</v>
@@ -3610,7 +3698,11 @@
       <c r="AH32" s="136" t="n">
         <v>363</v>
       </c>
-      <c r="AI32" s="136" t="n"/>
+      <c r="AI32" s="248" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
       <c r="AJ32" s="148" t="n"/>
     </row>
     <row r="33" ht="29" customHeight="1" s="196">
@@ -3632,8 +3724,10 @@
       <c r="F33" s="154" t="n">
         <v>270</v>
       </c>
-      <c r="G33" s="154" t="n">
-        <v>270</v>
+      <c r="G33" s="252" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
       </c>
       <c r="H33" s="154" t="n">
         <v>270</v>
@@ -3673,7 +3767,11 @@
       <c r="AH33" s="136" t="n">
         <v>391</v>
       </c>
-      <c r="AI33" s="136" t="n"/>
+      <c r="AI33" s="248" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
       <c r="AJ33" s="148" t="n"/>
     </row>
     <row r="34">
@@ -3695,8 +3793,10 @@
       <c r="F34" s="154" t="n">
         <v>285</v>
       </c>
-      <c r="G34" s="154" t="n">
-        <v>285</v>
+      <c r="G34" s="252" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
       </c>
       <c r="H34" s="154" t="n">
         <v>285</v>
@@ -3915,8 +4015,10 @@
       <c r="F38" s="158" t="n">
         <v>190</v>
       </c>
-      <c r="G38" s="154" t="n">
-        <v>195</v>
+      <c r="G38" s="252" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="H38" s="154" t="n">
         <v>195</v>
@@ -3974,8 +4076,10 @@
       <c r="F39" s="158" t="n">
         <v>205</v>
       </c>
-      <c r="G39" s="154" t="n">
-        <v>210</v>
+      <c r="G39" s="252" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
       </c>
       <c r="H39" s="154" t="n">
         <v>210</v>
@@ -4068,8 +4172,10 @@
       <c r="F40" s="158" t="n">
         <v>210</v>
       </c>
-      <c r="G40" s="154" t="n">
-        <v>220</v>
+      <c r="G40" s="252" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
       </c>
       <c r="H40" s="154" t="n">
         <v>220</v>
@@ -4171,8 +4277,10 @@
       <c r="F41" s="154" t="n">
         <v>220</v>
       </c>
-      <c r="G41" s="158" t="n">
-        <v>215</v>
+      <c r="G41" s="257" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="H41" s="158" t="n">
         <v>215</v>
@@ -4253,8 +4361,10 @@
       <c r="F42" s="154" t="n">
         <v>250</v>
       </c>
-      <c r="G42" s="154" t="n">
-        <v>250</v>
+      <c r="G42" s="252" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
       </c>
       <c r="H42" s="154" t="n">
         <v>250</v>
@@ -4341,8 +4451,10 @@
       <c r="F43" s="154" t="n">
         <v>305</v>
       </c>
-      <c r="G43" s="154" t="n">
-        <v>305</v>
+      <c r="G43" s="252" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
       </c>
       <c r="H43" s="154" t="n">
         <v>305</v>
@@ -4421,8 +4533,10 @@
       <c r="F44" s="154" t="n">
         <v>340</v>
       </c>
-      <c r="G44" s="154" t="n">
-        <v>340</v>
+      <c r="G44" s="252" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
       </c>
       <c r="H44" s="154" t="n">
         <v>340</v>
@@ -4794,8 +4908,10 @@
       <c r="F49" s="158" t="n">
         <v>195</v>
       </c>
-      <c r="G49" s="154" t="n">
-        <v>210</v>
+      <c r="G49" s="252" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
       </c>
       <c r="H49" s="154" t="n">
         <v>210</v>
@@ -4894,8 +5010,10 @@
       <c r="F50" s="154" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="154" t="n">
-        <v>230</v>
+      <c r="G50" s="252" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="H50" s="154" t="n">
         <v>230</v>
@@ -5003,8 +5121,10 @@
       <c r="F51" s="158" t="n">
         <v>265</v>
       </c>
-      <c r="G51" s="154" t="n">
-        <v>290</v>
+      <c r="G51" s="252" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
       </c>
       <c r="H51" s="154" t="n">
         <v>290</v>
@@ -5173,8 +5293,10 @@
       <c r="F53" s="154" t="n">
         <v>180</v>
       </c>
-      <c r="G53" s="154" t="n">
-        <v>180</v>
+      <c r="G53" s="252" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="H53" s="154" t="n">
         <v>180</v>
@@ -5218,8 +5340,10 @@
       <c r="V53" s="189" t="n">
         <v>195</v>
       </c>
-      <c r="W53" s="183" t="n">
-        <v>190</v>
+      <c r="W53" s="258" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
       </c>
       <c r="X53" s="183" t="n"/>
       <c r="Y53" s="189" t="n">
@@ -5252,8 +5376,10 @@
       <c r="AH53" s="136" t="n">
         <v>220</v>
       </c>
-      <c r="AI53" s="182" t="n">
-        <v>190</v>
+      <c r="AI53" s="262" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="AJ53" s="148" t="n"/>
     </row>
@@ -5276,8 +5402,10 @@
       <c r="F54" s="154" t="n">
         <v>195</v>
       </c>
-      <c r="G54" s="154" t="n">
-        <v>195</v>
+      <c r="G54" s="252" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="H54" s="154" t="n">
         <v>210</v>
@@ -5321,8 +5449,10 @@
       <c r="V54" s="182" t="n">
         <v>220</v>
       </c>
-      <c r="W54" s="182" t="n">
-        <v>220</v>
+      <c r="W54" s="263" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
       </c>
       <c r="X54" s="182" t="n"/>
       <c r="Y54" s="136" t="n">
@@ -5355,8 +5485,10 @@
       <c r="AH54" s="136" t="n">
         <v>237</v>
       </c>
-      <c r="AI54" s="182" t="n">
-        <v>223</v>
+      <c r="AI54" s="262" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
       </c>
       <c r="AJ54" s="148" t="n"/>
     </row>
@@ -5379,8 +5511,10 @@
       <c r="F55" s="154" t="n">
         <v>235</v>
       </c>
-      <c r="G55" s="158" t="n">
-        <v>230</v>
+      <c r="G55" s="257" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
       </c>
       <c r="H55" s="154" t="n">
         <v>235</v>
@@ -5424,8 +5558,10 @@
       <c r="V55" s="182" t="n">
         <v>260</v>
       </c>
-      <c r="W55" s="182" t="n">
-        <v>260</v>
+      <c r="W55" s="259" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
       </c>
       <c r="X55" s="136" t="n"/>
       <c r="Y55" s="136" t="n">
@@ -5458,8 +5594,10 @@
       <c r="AH55" s="136" t="n">
         <v>281</v>
       </c>
-      <c r="AI55" s="182" t="n">
-        <v>281</v>
+      <c r="AI55" s="262" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
       </c>
       <c r="AJ55" s="148" t="n"/>
     </row>
@@ -5505,8 +5643,10 @@
       <c r="V56" s="182" t="n">
         <v>265</v>
       </c>
-      <c r="W56" s="182" t="n">
-        <v>265</v>
+      <c r="W56" s="259" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
       </c>
       <c r="X56" s="136" t="n"/>
       <c r="Y56" s="136" t="n">
@@ -5533,8 +5673,10 @@
       <c r="AH56" s="136" t="n">
         <v>292</v>
       </c>
-      <c r="AI56" s="182" t="n">
-        <v>281</v>
+      <c r="AI56" s="262" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
       </c>
       <c r="AJ56" s="148" t="n"/>
     </row>
@@ -5557,8 +5699,10 @@
       <c r="F57" s="158" t="n">
         <v>295</v>
       </c>
-      <c r="G57" s="154" t="n">
-        <v>305</v>
+      <c r="G57" s="252" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
       </c>
       <c r="H57" s="154" t="n">
         <v>320</v>
@@ -5602,8 +5746,10 @@
       <c r="V57" s="182" t="n">
         <v>355</v>
       </c>
-      <c r="W57" s="182" t="n">
-        <v>355</v>
+      <c r="W57" s="263" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
       </c>
       <c r="X57" s="182" t="n"/>
       <c r="Y57" s="136" t="n">
@@ -5636,8 +5782,10 @@
       <c r="AH57" s="136" t="n">
         <v>385</v>
       </c>
-      <c r="AI57" s="182" t="n">
-        <v>372</v>
+      <c r="AI57" s="262" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
       </c>
       <c r="AJ57" s="148" t="n"/>
     </row>
@@ -5721,7 +5869,11 @@
       <c r="F59" s="154" t="n">
         <v>340</v>
       </c>
-      <c r="G59" s="112" t="n"/>
+      <c r="G59" s="249" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
       <c r="H59" s="154" t="n">
         <v>340</v>
       </c>
@@ -5784,8 +5936,10 @@
       <c r="AB59" s="189" t="n">
         <v>399</v>
       </c>
-      <c r="AC59" s="183" t="n">
-        <v>370</v>
+      <c r="AC59" s="258" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
       </c>
       <c r="AD59" s="168" t="n">
         <v>400</v>
@@ -5800,7 +5954,11 @@
       </c>
       <c r="AG59" s="136" t="n"/>
       <c r="AH59" s="136" t="n"/>
-      <c r="AI59" s="136" t="n"/>
+      <c r="AI59" s="248" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
       <c r="AJ59" s="148" t="n"/>
     </row>
     <row r="60" ht="23.25" customHeight="1" s="196">
@@ -5822,7 +5980,11 @@
       <c r="F60" s="154" t="n">
         <v>380</v>
       </c>
-      <c r="G60" s="112" t="n"/>
+      <c r="G60" s="249" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
       <c r="H60" s="154" t="n">
         <v>380</v>
       </c>
@@ -5885,8 +6047,10 @@
       <c r="AB60" s="136" t="n">
         <v>460</v>
       </c>
-      <c r="AC60" s="182" t="n">
-        <v>430</v>
+      <c r="AC60" s="259" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
       </c>
       <c r="AD60" s="148" t="n">
         <v>460</v>
@@ -5905,8 +6069,10 @@
         </is>
       </c>
       <c r="AH60" s="136" t="n"/>
-      <c r="AI60" s="182" t="n">
-        <v>345</v>
+      <c r="AI60" s="263" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
       </c>
       <c r="AJ60" s="148" t="n"/>
     </row>
@@ -5978,8 +6144,10 @@
       <c r="AB61" s="136" t="n">
         <v>500</v>
       </c>
-      <c r="AC61" s="182" t="n">
-        <v>450</v>
+      <c r="AC61" s="259" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
       </c>
       <c r="AD61" s="148" t="n">
         <v>500</v>
@@ -5998,8 +6166,10 @@
         </is>
       </c>
       <c r="AH61" s="136" t="n"/>
-      <c r="AI61" s="182" t="n">
-        <v>365</v>
+      <c r="AI61" s="263" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
       </c>
       <c r="AJ61" s="148" t="n"/>
     </row>
@@ -6022,7 +6192,11 @@
       <c r="F62" s="154" t="n">
         <v>450</v>
       </c>
-      <c r="G62" s="112" t="n"/>
+      <c r="G62" s="249" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
       <c r="H62" s="154" t="n">
         <v>450</v>
       </c>
@@ -6085,8 +6259,10 @@
       <c r="AB62" s="136" t="n">
         <v>598</v>
       </c>
-      <c r="AC62" s="182" t="n">
-        <v>530</v>
+      <c r="AC62" s="259" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
       </c>
       <c r="AD62" s="148" t="n"/>
       <c r="AE62" s="25" t="inlineStr">
@@ -6179,8 +6355,10 @@
       <c r="AB63" s="152" t="n">
         <v>652</v>
       </c>
-      <c r="AC63" s="184" t="n">
-        <v>580</v>
+      <c r="AC63" s="260" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
       </c>
       <c r="AD63" s="153" t="n">
         <v>635</v>
@@ -6195,7 +6373,11 @@
       </c>
       <c r="AG63" s="152" t="n"/>
       <c r="AH63" s="152" t="n"/>
-      <c r="AI63" s="152" t="n"/>
+      <c r="AI63" s="264" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
       <c r="AJ63" s="153" t="n"/>
     </row>
     <row r="64">
